--- a/data/trans_camb/P32B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 10,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 6,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 7,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 2,39</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>281,63%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>49,53%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-93,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>176,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,84%</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 1608,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,72; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 809,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,73; 418,49</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; -0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; -0,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 1,85</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>74,64%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-34,24%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,12%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,12; 779,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,69; 546,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1069,42 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 7,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 4,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 6,05</t>
         </is>
       </c>
     </row>
@@ -1175,42 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 6,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 1,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 2,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 1,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 4,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,81</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>257,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,64%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,09; 1416,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,14; 1029,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,58; 296,38</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 7,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 8,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 5,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 6,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 4,52</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>338,41%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>332,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>358,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>355,69%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,78%</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 1,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 3,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 3,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; -0,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 0,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 3,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 1,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 2,79</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,39%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,82; 305,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,9; 525,28</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 6,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 5,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 4,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 5,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 5,82</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 4,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 4,68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 4,23</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 3,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 2,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 2,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 0,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; -0,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,73</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 2,01</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 1,07</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,76</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>497,63%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>265,17%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,56%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,42%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,94%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,59%</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,24; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,14; 667,38</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,3; 463,62</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 3,07</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,14</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,86</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,72</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,57</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,74%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,4%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,68%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,89%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,44%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,96; 595,01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,35; 435,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,94; 402,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; 105,04</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 180,05</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; 284,79</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,84; 276,78</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,33; 213,81</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 232,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,56; 14,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,29</t>
+          <t>-2,39; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 0,0</t>
+          <t>-10,39; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 8,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,39</t>
+          <t>-2,75; 3,03</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>434,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-93,7%</t>
+          <t>-93,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,84%</t>
+          <t>-7,67%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,91; 1777,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,91; 1044,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,73; 418,49</t>
+          <t>-89,44; 519,45</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,07</t>
+          <t>-2,58; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,85</t>
+          <t>-1,9; 2,5</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,24%</t>
+          <t>-25,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-42,12%</t>
+          <t>-32,6%</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,46</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,96</t>
+          <t>1,96; 7,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,81</t>
+          <t>0,45; 4,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,05</t>
+          <t>2,11; 6,08</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,73</t>
+          <t>-3,34; 0,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,31</t>
+          <t>-3,02; 1,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,01</t>
+          <t>-4,5; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,14</t>
+          <t>-3,17; 1,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,53</t>
+          <t>-2,69; 0,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,81</t>
+          <t>-2,42; 0,82</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>257,98%</t>
+          <t>-67,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-36,71%</t>
+          <t>-38,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,84%</t>
+          <t>-18,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>198,46%</t>
+          <t>-73,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,64%</t>
+          <t>-34,14%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 1416,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 1029,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,58; 296,38</t>
+          <t>-91,73; 293,43</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,52</t>
+          <t>-1,24; 4,67</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>78,37%</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,46</t>
+          <t>-2,21; 3,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,51</t>
+          <t>-4,61; 3,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,79</t>
+          <t>-1,97; 2,72</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-13,59%</t>
+          <t>-14,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>22,35%</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 525,28</t>
+          <t>-69,48; 507,09</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,87</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,42</t>
+          <t>0,96; 4,26</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,82</t>
+          <t>0,13; 4,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,23</t>
+          <t>0,73; 3,5</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,22</t>
+          <t>-0,2; 2,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,73</t>
+          <t>-2,04; 2,89</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,76</t>
+          <t>-0,53; 1,8</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>175,56%</t>
+          <t>177,12%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>67,28%</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,05</t>
+          <t>0,36; 2,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,72</t>
+          <t>-0,78; 1,42</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,57</t>
+          <t>0,17; 1,52</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>130,68%</t>
+          <t>140,34%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>92,07%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>18,94; 402,1</t>
+          <t>19,43; 420,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 284,79</t>
+          <t>-50,07; 238,79</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>14,49; 232,43</t>
+          <t>12,34; 230,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 14,02</t>
+          <t>3,77; 14,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,94</t>
+          <t>1,5; 10,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 6,32</t>
+          <t>-2,17; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,81</t>
+          <t>-7,14; 2,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,59</t>
+          <t>-5,29; 6,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 0,0</t>
+          <t>-9,51; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,78</t>
+          <t>1,03; 8,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,65</t>
+          <t>0,76; 8,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,03</t>
+          <t>-2,82; 3,5</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,91; 1777,45</t>
+          <t>47,41; 1933,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1608,68</t>
+          <t>-4,93; 1457,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-97,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,91; 1044,71</t>
+          <t>-1,9; 805,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 809,05</t>
+          <t>0,27; 852,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 519,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,04</t>
+          <t>-1,2; 4,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -0,44</t>
+          <t>-3,9; -0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,11</t>
+          <t>-2,5; 4,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,54</t>
+          <t>-1,08; 2,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,33</t>
+          <t>-3,19; -0,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,5</t>
+          <t>-1,92; 2,14</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 779,5</t>
+          <t>-56,17; 855,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 546,74</t>
+          <t>-62,19; 637,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,93</t>
+          <t>2,18; 8,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,8</t>
+          <t>0,49; 4,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,08</t>
+          <t>1,85; 6,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,58</t>
+          <t>-3,17; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,32</t>
+          <t>-2,84; 1,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,25</t>
+          <t>-2,93; 1,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,0</t>
+          <t>-3,77; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,0</t>
+          <t>-4,77; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,15</t>
+          <t>-3,61; 1,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,05</t>
+          <t>-2,57; 0,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,57</t>
+          <t>-2,29; 0,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,82</t>
+          <t>-2,22; 0,93</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,73; 293,43</t>
+          <t>-90,73; 312,35</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,76</t>
+          <t>-0,24; 7,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,52</t>
+          <t>-0,68; 7,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,0</t>
+          <t>-4,54; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 5,88</t>
+          <t>-0,3; 5,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,4</t>
+          <t>-0,02; 6,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,67</t>
+          <t>-1,25; 4,68</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,12</t>
+          <t>-3,62; 1,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,13</t>
+          <t>-2,32; 3,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,36</t>
+          <t>-1,95; 3,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -0,83</t>
+          <t>-7,66; -0,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,91</t>
+          <t>-6,36; 0,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,4</t>
+          <t>-4,5; 3,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,13</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,97</t>
+          <t>-2,34; 1,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,72</t>
+          <t>-1,84; 2,58</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-85,82; 305,55</t>
+          <t>-85,44; 314,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-69,48; 507,09</t>
+          <t>-73,02; 434,97</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,34</t>
+          <t>2,09; 6,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,98</t>
+          <t>1,71; 6,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,26</t>
+          <t>0,99; 4,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,32</t>
+          <t>0,44; 4,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,25</t>
+          <t>0,81; 5,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,71</t>
+          <t>0,13; 4,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,98</t>
+          <t>1,72; 4,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,68</t>
+          <t>1,73; 4,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,5</t>
+          <t>0,7; 3,64</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,11</t>
+          <t>0,51; 3,35</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,51</t>
+          <t>-0,04; 2,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,23</t>
+          <t>-0,32; 2,2</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,6</t>
+          <t>-2,47; 0,58</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,39</t>
+          <t>-3,3; -0,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,89</t>
+          <t>-1,78; 3,08</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,01</t>
+          <t>-0,12; 2,1</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,07</t>
+          <t>-0,65; 1,16</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,8</t>
+          <t>-0,47; 1,79</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20,24; —</t>
+          <t>22,39; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 667,38</t>
+          <t>-34,07; 779,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-74,3; 463,62</t>
+          <t>-80,0; 483,91</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,8; 709,73</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,07</t>
+          <t>1,13; 2,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,14</t>
+          <t>0,57; 2,09</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,18</t>
+          <t>0,36; 2,13</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,34; 0,4</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,86</t>
+          <t>-0,98; 0,83</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,42</t>
+          <t>-0,8; 1,39</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,63; 1,96</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,4</t>
+          <t>0,27; 1,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,11; 1,57</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>101,96; 595,01</t>
+          <t>91,38; 537,71</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>50,35; 435,98</t>
+          <t>40,23; 377,81</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,43; 420,38</t>
+          <t>21,08; 381,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 105,04</t>
+          <t>-81,27; 79,7</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 180,05</t>
+          <t>-63,65; 154,89</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 238,79</t>
+          <t>-50,68; 231,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>38,84; 276,78</t>
+          <t>46,47; 284,25</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>20,33; 213,81</t>
+          <t>17,34; 215,81</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>12,34; 230,81</t>
+          <t>5,11; 233,72</t>
         </is>
       </c>
     </row>
